--- a/acervo separado/Acervo_Peca_de_indumentaria.xlsx
+++ b/acervo separado/Acervo_Peca_de_indumentaria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{566376FD-4C58-4FCE-A533-7325578AB12E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D9524C-5A8E-4398-B12F-58CDA525786B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$20</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$20</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -110,9 +117,6 @@
     <t>Casula (verde - paramento de bispo usado no Advento)</t>
   </si>
   <si>
-    <t>Bordado/tecido, seda, ouro e prata</t>
-  </si>
-  <si>
     <t>127,0 x 67,0 cm</t>
   </si>
   <si>
@@ -125,27 +129,18 @@
     <t>Manguito (verde - paramento de bispo usado no Advento)</t>
   </si>
   <si>
-    <t>Tecido, seda, fio de ouro e fio de prata</t>
-  </si>
-  <si>
     <t>49,0 x 47,0 cm</t>
   </si>
   <si>
     <t>1512 C</t>
   </si>
   <si>
-    <t>Seda e fio de ouro</t>
-  </si>
-  <si>
     <t>1512 E</t>
   </si>
   <si>
     <t>Manípulo (verde - paramento de bispo usado no Advento)</t>
   </si>
   <si>
-    <t>Bordado/tecido, seda, fio de ouro, prata e lantejoula</t>
-  </si>
-  <si>
     <t>41,0 x 17,0 cm</t>
   </si>
   <si>
@@ -155,9 +150,6 @@
     <t>Luva (verde - paramento de bispo usado no Advento)</t>
   </si>
   <si>
-    <t>Bordado/seda, franja, fio de ouro e lantejoulas</t>
-  </si>
-  <si>
     <t>26,4 x 18,6 cm</t>
   </si>
   <si>
@@ -173,9 +165,6 @@
     <t>Sapatilha (verde - paramento de bispo usado no Advento)</t>
   </si>
   <si>
-    <t>Bordado/couro, pelica, seda, fio de ouro e prata</t>
-  </si>
-  <si>
     <t>25,5 x 12,0 cm</t>
   </si>
   <si>
@@ -200,9 +189,6 @@
     <t>Véu de cálice (verde - paramento de bispo usado no Advento)</t>
   </si>
   <si>
-    <t>Bordado/seda, fio de ouro, prata e bordado</t>
-  </si>
-  <si>
     <t>52,0 x 52,0 cm</t>
   </si>
   <si>
@@ -212,9 +198,6 @@
     <t>Cálice (verde - paramento de bispo usado no Advento)</t>
   </si>
   <si>
-    <t>Tecido</t>
-  </si>
-  <si>
     <t>17,0 x 17,0 cm</t>
   </si>
   <si>
@@ -224,9 +207,6 @@
     <t>Dalmática (verde - paramento de bispo usado no Advento)</t>
   </si>
   <si>
-    <t>Tecido e fio de ouro</t>
-  </si>
-  <si>
     <t>99,5 x 149,5 cm</t>
   </si>
   <si>
@@ -236,9 +216,6 @@
     <t>Par de sapatilhas (verde)</t>
   </si>
   <si>
-    <t>Bordado/veludo e fio metálico</t>
-  </si>
-  <si>
     <t>27,3 x 14,5 cm</t>
   </si>
   <si>
@@ -254,9 +231,6 @@
     <t>Forro de cadeira (verde - paramento de bispo usado no Advento)</t>
   </si>
   <si>
-    <t>Bordado/tafetá, fio de ouro e prata</t>
-  </si>
-  <si>
     <t>92,0 x 78,5 cm</t>
   </si>
   <si>
@@ -266,9 +240,6 @@
     <t>Tampa - cálice (verde - paramento de bispo usado no Advento)</t>
   </si>
   <si>
-    <t>Bordado/seda, fio de ouro e galão</t>
-  </si>
-  <si>
     <t>11,0 cm</t>
   </si>
   <si>
@@ -278,9 +249,6 @@
     <t>Pala (verde - paramento de bispo usado no Advento)</t>
   </si>
   <si>
-    <t>Bordado/seda, fio de ouro e prata</t>
-  </si>
-  <si>
     <t>30,0 x 30,0 cm</t>
   </si>
   <si>
@@ -381,6 +349,45 @@
   </si>
   <si>
     <t>50,0 cm</t>
+  </si>
+  <si>
+    <t>mattec_36</t>
+  </si>
+  <si>
+    <t>mattec_296</t>
+  </si>
+  <si>
+    <t>mattec_35</t>
+  </si>
+  <si>
+    <t>mattec_33</t>
+  </si>
+  <si>
+    <t>mattec_27</t>
+  </si>
+  <si>
+    <t>mattec_275</t>
+  </si>
+  <si>
+    <t>mattec_32</t>
+  </si>
+  <si>
+    <t>mattec_292</t>
+  </si>
+  <si>
+    <t>mattec_293</t>
+  </si>
+  <si>
+    <t>mattec_37</t>
+  </si>
+  <si>
+    <t>mattec_34</t>
+  </si>
+  <si>
+    <t>mattec_30</t>
+  </si>
+  <si>
+    <t>mattec_31</t>
   </si>
 </sst>
 </file>
@@ -765,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,10 +851,10 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="S1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -867,11 +874,11 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
@@ -879,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -891,10 +898,10 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -902,23 +909,23 @@
         <v>1512</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
@@ -926,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
         <v>23</v>
@@ -938,10 +945,10 @@
         <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="S3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -949,7 +956,7 @@
         <v>1512</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -958,14 +965,14 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
@@ -973,7 +980,7 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
         <v>23</v>
@@ -985,10 +992,10 @@
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -996,7 +1003,7 @@
         <v>1512</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1005,13 +1012,13 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -1020,7 +1027,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
@@ -1032,10 +1039,10 @@
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="S5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1043,7 +1050,7 @@
         <v>1512</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1052,13 +1059,13 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -1067,7 +1074,7 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
@@ -1079,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="S6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1090,7 +1097,7 @@
         <v>1512</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -1099,13 +1106,13 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -1114,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
@@ -1126,10 +1133,10 @@
         <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="S7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1137,7 +1144,7 @@
         <v>1512</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -1146,13 +1153,13 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -1161,7 +1168,7 @@
         <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -1173,10 +1180,10 @@
         <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="S8" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1184,7 +1191,7 @@
         <v>1512</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1193,13 +1200,13 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -1208,7 +1215,7 @@
         <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -1220,10 +1227,10 @@
         <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="S9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1231,7 +1238,7 @@
         <v>1512</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -1240,13 +1247,13 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -1255,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
@@ -1267,10 +1274,10 @@
         <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="S10" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1278,7 +1285,7 @@
         <v>1512</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -1287,13 +1294,13 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -1302,7 +1309,7 @@
         <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
@@ -1314,10 +1321,10 @@
         <v>21</v>
       </c>
       <c r="R11" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1325,7 +1332,7 @@
         <v>1512</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -1334,13 +1341,13 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -1349,7 +1356,7 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
         <v>23</v>
@@ -1361,10 +1368,10 @@
         <v>21</v>
       </c>
       <c r="R12" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="S12" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1372,7 +1379,7 @@
         <v>1512</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -1381,13 +1388,13 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -1396,7 +1403,7 @@
         <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13" t="s">
         <v>23</v>
@@ -1408,10 +1415,10 @@
         <v>21</v>
       </c>
       <c r="R13" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="S13" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1419,7 +1426,7 @@
         <v>1512</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -1428,13 +1435,13 @@
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -1443,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
@@ -1455,10 +1462,10 @@
         <v>21</v>
       </c>
       <c r="R14" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1466,7 +1473,7 @@
         <v>1510</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -1475,13 +1482,13 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1490,7 +1497,7 @@
         <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
@@ -1502,10 +1509,10 @@
         <v>21</v>
       </c>
       <c r="R15" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="S15" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1513,7 +1520,7 @@
         <v>1512</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1522,13 +1529,13 @@
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -1537,7 +1544,7 @@
         <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M16" t="s">
         <v>19</v>
@@ -1549,10 +1556,10 @@
         <v>21</v>
       </c>
       <c r="R16" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="S16" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1560,7 +1567,7 @@
         <v>1512</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1569,13 +1576,13 @@
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -1584,7 +1591,7 @@
         <v>18</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M17" t="s">
         <v>23</v>
@@ -1596,10 +1603,10 @@
         <v>21</v>
       </c>
       <c r="R17" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="S17" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1607,7 +1614,7 @@
         <v>1512</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -1616,13 +1623,13 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -1631,7 +1638,7 @@
         <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M18" t="s">
         <v>23</v>
@@ -1643,7 +1650,7 @@
         <v>21</v>
       </c>
       <c r="R18" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1651,7 +1658,7 @@
         <v>1512</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -1660,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -1675,7 +1682,7 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
@@ -1687,10 +1694,10 @@
         <v>21</v>
       </c>
       <c r="R19" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="S19" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1698,7 +1705,7 @@
         <v>1512</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -1707,13 +1714,13 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -1722,7 +1729,7 @@
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M20" t="s">
         <v>23</v>
@@ -1734,10 +1741,10 @@
         <v>21</v>
       </c>
       <c r="R20" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="S20" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
